--- a/src/Section Properties ITERATION005.xlsx
+++ b/src/Section Properties ITERATION005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2925D041-BAE4-45FA-95C2-CDD101326066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193FF0F9-74E9-482B-ABD5-34D8601A47DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="2184" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
   <si>
     <t>Name of element</t>
   </si>
@@ -866,40 +866,40 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1076,23 +1076,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.38366396427160332</v>
+        <v>0.63713867682534053</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.44038324492704728</v>
+        <v>-0.47713958566367554</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>3.4499540034516121E-2</v>
+        <v>9.5143521915643542E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>4.5454078690423991E-2</v>
+        <v>5.3358324423586866E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-3.9599808175196108E-2</v>
+        <v>-7.1250957250955968E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1115,23 +1115,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>-0.15837596813785104</v>
+        <v>0.79619115537830387</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.74440271318429851</v>
+        <v>-0.83208866826052907</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>5.878815769594127E-3</v>
+        <v>0.14857508341468087</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>0.12987548423347148</v>
+        <v>0.16227458246427676</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>2.7631757902735858E-2</v>
+        <v>-0.15527382144364332</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.4346167550729527</v>
+        <v>1.3978604143363245</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1206,18 +1206,18 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>5.1578045138205117E-2</v>
+        <v>5.5708930162632786E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>7.5927648865059495E-4</v>
+        <v>1.8953050613399153E-2</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>3.523049132598822E-3</v>
+        <v>-1.9797412234064525E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1258,23 +1258,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.64758603572839668</v>
+        <v>-0.39411132317465947</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.44038324492704728</v>
+        <v>-0.47713958566367554</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>0.1017240160628714</v>
+        <v>3.7676137460333881E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>4.7042470549846144E-2</v>
+        <v>5.5222929990098701E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>6.9176217227091163E-2</v>
+        <v>4.5613448688619815E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1297,23 +1297,23 @@
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-1.1896259681378512</v>
+        <v>-0.23505884462169613</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.74440271318429851</v>
+        <v>-0.83208866826052907</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>0.34328072505616813</v>
+        <v>1.3402374266004926E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>0.13441398040011837</v>
+        <v>0.16794526446253905</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>0.21480625840379561</v>
+        <v>4.7443284988817176E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1339,27 +1339,27 @@
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.35241396427160332</v>
+        <v>-0.60588867682534053</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.4346167550729527</v>
+        <v>-1.3978604143363245</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.198158806808894</v>
+        <v>1.2205263068616214</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.76982570360313773</v>
+        <v>0.56178005341471504</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>3.965686298238838E-2</v>
+        <v>-0.2477152871319907</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.92080077969834884</v>
+        <v>0.62430447038390191</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.44038324492704728</v>
+        <v>-0.47713958566367554</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1394,18 +1394,18 @@
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>1.9724437094968111E-2</v>
+        <v>2.3999675812926745E-2</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>8.0011617200190899E-2</v>
+        <v>3.7952127474445096E-2</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>1.772559598622276E-2</v>
+        <v>-3.6131831241869904E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1445,23 +1445,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.39758603572839668</v>
+        <v>-0.14411132317465947</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.3721167550729527</v>
+        <v>1.3353604143363245</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>2.9638997963666612E-2</v>
+        <v>3.8940137750908392E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.35300707304098677</v>
+        <v>0.33434764428309005</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-0.10228771147611876</v>
+        <v>-3.6082604292200476E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1484,23 +1484,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.93962596813785104</v>
+        <v>1.4941155378303872E-2</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.0680972868157015</v>
+        <v>0.98041133173947093</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>0.16554317999981136</v>
+        <v>4.1857148257241007E-5</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.21390596514432431</v>
+        <v>0.18022619613809304</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-0.18817724009805289</v>
+        <v>2.7465896329067359E-3</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1575,18 +1575,18 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>1.6596633197122634E-2</v>
+        <v>1.3986451099139711E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>1.464600269998538E-2</v>
+        <v>1.8196501789899363E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-1.45837361075991E-2</v>
+        <v>2.1286069655027204E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1626,23 +1626,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.10241396427160332</v>
+        <v>0.35588867682534053</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.2528832449270473</v>
+        <v>-2.2896395856636755</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>6.555387548640776E-4</v>
+        <v>7.9160468932807301E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.31721768220456387</v>
+        <v>0.32765308951488298</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-1.4420419009628272E-2</v>
+        <v>-5.0928550159297904E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1665,23 +1665,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>-0.43962596813785104</v>
+        <v>0.51494115537830387</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.5569027131842983</v>
+        <v>-2.6445886682605293</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>1.2079436991321427E-2</v>
+        <v>1.6572774593896406E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.40860946779307661</v>
+        <v>0.43711557651825</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>7.0255051919871581E-2</v>
+        <v>-8.5112971520902928E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1707,27 +1707,27 @@
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>0.18962596813785104</v>
+        <v>-0.76494115537830387</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.1305972868157015</v>
+        <v>-1.0429113317394709</v>
       </c>
       <c r="AJ5">
         <f>AZ16</f>
-        <v>0.16988531357629777</v>
+        <v>0.17339440321274485</v>
       </c>
       <c r="AK5">
         <f>BA16</f>
-        <v>0.19019288315108762</v>
+        <v>0.11371297013890538</v>
       </c>
       <c r="AL5">
         <f>BB16</f>
-        <v>8.0483383747886855E-2</v>
+        <v>-4.5652915977251941E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>2.5833402534593063E-2</v>
+        <v>1.7633003857558151E-2</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1758,18 +1758,18 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>3.1673540720109271E-2</v>
+        <v>3.388276414631021E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>1.037067825160744E-3</v>
+        <v>1.3853014893603047E-3</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>5.4447665237900471E-3</v>
+        <v>-6.5962552928699771E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1784,16 +1784,16 @@
         <f>(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
+      <c r="E6">
+        <v>-6.25E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G6">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>-9.765625E-4</v>
       </c>
       <c r="H6">
         <f>((1/8)^4)/12</f>
@@ -1808,23 +1808,23 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.47741396427160332</v>
-      </c>
-      <c r="L6" t="e">
+        <v>0.73088867682534053</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.3353604143363245</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>3.5613139575238709E-3</v>
-      </c>
-      <c r="N6" t="e">
+        <v>8.3468477798671423E-3</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>2.7862303690257502E-2</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>1.5249996973737729E-2</v>
       </c>
       <c r="P6">
         <v>1130</v>
@@ -1841,29 +1841,29 @@
         <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
-      <c r="T6" t="e">
+      <c r="T6">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>-5.5175781249999995E-4</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>-6.4625968137851042E-2</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.88994115537830387</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>0.98041133173947093</v>
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>6.5258058714914662E-5</v>
-      </c>
-      <c r="X6" t="e">
+        <v>1.2374925938063599E-2</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>1.501884967817442E-2</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>1.3632943645534473E-2</v>
       </c>
       <c r="Z6">
         <v>7.8</v>
@@ -1917,20 +1917,20 @@
       <c r="AW6" t="s">
         <v>62</v>
       </c>
-      <c r="AZ6" t="e">
+      <c r="AZ6">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>8.4971450225956296E-3</v>
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>4.8365757601010113E-5</v>
-      </c>
-      <c r="BB6" t="e">
+        <v>7.0033281094330161E-3</v>
+      </c>
+      <c r="BB6">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>7.7026131597269761E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1942,26 +1942,26 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="21">(1/16)+(1/8)/2</f>
-        <v>0.125</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
+        <f>D6+0.125</f>
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>-6.25E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G7" t="e">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>-9.765625E-4</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="22">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I15" si="21">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J7">
@@ -1969,23 +1969,23 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.47741396427160332</v>
-      </c>
-      <c r="L7" t="e">
+        <v>0.85588867682534053</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.3353604143363245</v>
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>3.5613139575238709E-3</v>
-      </c>
-      <c r="N7" t="e">
+        <v>1.1446022298716128E-2</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>2.7862303690257502E-2</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>1.7858122782988362E-2</v>
       </c>
       <c r="P7">
         <v>1130</v>
@@ -2000,31 +2000,31 @@
       </c>
       <c r="S7">
         <f t="shared" si="11"/>
-        <v>1.1035156249999999E-3</v>
-      </c>
-      <c r="T7" t="e">
+        <v>2.2070312499999998E-3</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>-5.5175781249999995E-4</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>-6.4625968137851042E-2</v>
-      </c>
-      <c r="V7" t="e">
+        <v>1.0149411553783039</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>0.98041133173947093</v>
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>6.5258058714914662E-5</v>
-      </c>
-      <c r="X7" t="e">
+        <v>1.6095399201260099E-2</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>1.501884967817442E-2</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>1.5547809527838128E-2</v>
       </c>
       <c r="Z7">
         <v>7.8</v>
@@ -2078,20 +2078,20 @@
       <c r="AW7" t="s">
         <v>62</v>
       </c>
-      <c r="AZ7" t="e">
+      <c r="AZ7">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>8.4971450225956296E-3</v>
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>4.8365757601010113E-5</v>
-      </c>
-      <c r="BB7" t="e">
+        <v>9.1053955031390379E-3</v>
+      </c>
+      <c r="BB7">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>8.7845123832285422E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D8:D10" si="22">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2118,11 +2118,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J8">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.47741396427160332</v>
+        <v>0.73088867682534053</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>3.5613139575238709E-3</v>
+        <v>8.3468477798671423E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>-6.4625968137851042E-2</v>
+        <v>0.88994115537830387</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>6.5258058714914662E-5</v>
+        <v>1.2374925938063599E-2</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>4.8365757601010113E-5</v>
+        <v>7.0033281094330161E-3</v>
       </c>
       <c r="BB8" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.125</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2284,11 +2284,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J9">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.47741396427160332</v>
+        <v>0.73088867682534053</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>3.5613139575238709E-3</v>
+        <v>8.3468477798671423E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>-6.4625968137851042E-2</v>
+        <v>0.88994115537830387</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>6.5258058714914662E-5</v>
+        <v>1.2374925938063599E-2</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2420,14 +2420,14 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>4.8365757601010113E-5</v>
+        <v>7.0033281094330161E-3</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.125</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2454,11 +2454,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J10">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.47741396427160332</v>
+        <v>0.73088867682534053</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>3.5613139575238709E-3</v>
+        <v>8.3468477798671423E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>-6.4625968137851042E-2</v>
+        <v>0.88994115537830387</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>6.5258058714914662E-5</v>
+        <v>1.2374925938063599E-2</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2592,14 +2592,14 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>4.8365757601010113E-5</v>
+        <v>7.0033281094330161E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2610,27 +2610,28 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.625</v>
-      </c>
-      <c r="E11" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+      <c r="D11">
+        <f>-1.6046754518</f>
+        <v>-1.6046754517999999</v>
+      </c>
+      <c r="E11">
+        <f>-0.092597515</f>
+        <v>-9.2597515000000005E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>2.5390625E-2</v>
+        <v>-2.5073053934374999E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-1.4468361718750001E-3</v>
       </c>
       <c r="H11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J11">
@@ -2638,23 +2639,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1.9774139642716033</v>
+        <v>-0.9987867749746594</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.4971167550729527</v>
+        <v>1.3052628993363244</v>
       </c>
       <c r="M11">
         <f>C11*K11^2</f>
-        <v>6.1096343532755275E-2</v>
+        <v>1.558710971662939E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>3.5021227786252621E-2</v>
+        <v>2.6620488068497934E-2</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>4.6256555900410098E-2</v>
+        <v>-2.0369989401909389E-2</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2669,31 +2670,31 @@
       </c>
       <c r="S11">
         <f t="shared" si="11"/>
-        <v>1.4345703124999998E-2</v>
+        <v>-1.4166275472921873E-2</v>
       </c>
       <c r="T11">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-8.1746243710937498E-4</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>1.4353740318621488</v>
+        <v>-0.83973429642169606</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>1.1930972868157015</v>
+        <v>0.95031381673947091</v>
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>3.2192165802253141E-2</v>
+        <v>1.1018026384169389E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="14"/>
-        <v>2.2241892746984192E-2</v>
+        <v>1.4110880473217824E-2</v>
       </c>
       <c r="Y11">
         <f t="shared" si="15"/>
-        <v>2.6758450984069437E-2</v>
+        <v>-1.2468923504367754E-2</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2758,18 +2759,18 @@
       </c>
       <c r="AZ11">
         <f t="shared" si="17"/>
-        <v>1.2578164356473151E-2</v>
+        <v>7.984142421795154E-3</v>
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>1.8200068632700107E-2</v>
+        <v>6.2366798614827881E-3</v>
       </c>
       <c r="BB11">
         <f t="shared" si="19"/>
-        <v>1.511852480599923E-2</v>
+        <v>-7.0449417799677803E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2780,28 +2781,28 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D12" s="5">
-        <f>D11+1/8</f>
-        <v>1.75</v>
-      </c>
-      <c r="E12" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+      <c r="D12">
+        <f>-1.7254548192</f>
+        <v>-1.7254548192000001</v>
+      </c>
+      <c r="E12">
+        <f>-0.1248053464</f>
+        <v>-0.1248053464</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>2.734375E-2</v>
+        <v>-2.6960231550000002E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-1.9500835375E-3</v>
       </c>
       <c r="H12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J12">
@@ -2809,23 +2810,23 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>2.1024139642716033</v>
+        <v>-1.1195661423746595</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1.4971167550729527</v>
+        <v>1.2730550679363244</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>6.9064757455691225E-2</v>
+        <v>1.9584817924244942E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="8"/>
-        <v>3.5021227786252621E-2</v>
+        <v>2.5322956343724369E-2</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>4.9180612062661964E-2</v>
+        <v>-2.22698336162497E-2</v>
       </c>
       <c r="P12">
         <v>1130</v>
@@ -2840,31 +2841,31 @@
       </c>
       <c r="S12">
         <f t="shared" si="11"/>
-        <v>1.5449218749999999E-2</v>
+        <v>-1.5232530825749999E-2</v>
       </c>
       <c r="T12">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-1.1017971986874999E-3</v>
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
-        <v>1.5603740318621488</v>
+        <v>-0.96051366382169623</v>
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>1.1930972868157015</v>
+        <v>0.91810598533947096</v>
       </c>
       <c r="W12">
         <f t="shared" si="13"/>
-        <v>3.8043236239214663E-2</v>
+        <v>1.4415414037315289E-2</v>
       </c>
       <c r="X12">
         <f t="shared" si="14"/>
-        <v>2.2241892746984192E-2</v>
+        <v>1.3170603129940013E-2</v>
       </c>
       <c r="Y12">
         <f t="shared" si="15"/>
-        <v>2.9088719122381354E-2</v>
+        <v>-1.3778958496172559E-2</v>
       </c>
       <c r="Z12">
         <v>7.8</v>
@@ -2931,18 +2932,18 @@
       </c>
       <c r="AZ12">
         <f t="shared" si="17"/>
-        <v>1.2578164356473151E-2</v>
+        <v>7.4528857228431901E-3</v>
       </c>
       <c r="BA12">
         <f t="shared" si="18"/>
-        <v>2.1505923429583369E-2</v>
+        <v>8.1562038855102215E-3</v>
       </c>
       <c r="BB12">
         <f t="shared" si="19"/>
-        <v>1.6435126304145464E-2</v>
+        <v>-7.7851115503374951E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2954,27 +2955,27 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D13" s="5">
-        <f>D12+1/8</f>
-        <v>1.875</v>
+        <f>-1.8462341867</f>
+        <v>-1.8462341867000001</v>
       </c>
       <c r="E13" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+        <f>-0.1570131777</f>
+        <v>-0.15701317770000001</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>2.9296875E-2</v>
+        <v>-2.8847409167187501E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-2.4533309015625001E-3</v>
       </c>
       <c r="H13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J13">
@@ -2982,23 +2983,23 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>2.2274139642716033</v>
+        <v>-1.2403455098746594</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1.4971167550729527</v>
+        <v>1.2408472366363243</v>
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
-        <v>7.7521452628627183E-2</v>
+        <v>2.4038390372909824E-2</v>
       </c>
       <c r="N13">
         <f t="shared" si="8"/>
-        <v>3.5021227786252621E-2</v>
+        <v>2.4057841635437536E-2</v>
       </c>
       <c r="O13">
         <f t="shared" si="9"/>
-        <v>5.2104668224913823E-2</v>
+        <v>-2.4048114037535061E-2</v>
       </c>
       <c r="P13">
         <v>1130</v>
@@ -3013,31 +3014,31 @@
       </c>
       <c r="S13">
         <f t="shared" si="11"/>
-        <v>1.6552734374999999E-2</v>
+        <v>-1.6298786179460935E-2</v>
       </c>
       <c r="T13">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-1.3861319593828124E-3</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>1.6853740318621488</v>
+        <v>-1.0812930313216962</v>
       </c>
       <c r="V13">
         <f t="shared" si="4"/>
-        <v>1.1930972868157015</v>
+        <v>0.88589815403947092</v>
       </c>
       <c r="W13">
         <f t="shared" si="13"/>
-        <v>4.4382587926176179E-2</v>
+        <v>1.8268665931013478E-2</v>
       </c>
       <c r="X13">
         <f t="shared" si="14"/>
-        <v>2.2241892746984192E-2</v>
+        <v>1.2262742802039721E-2</v>
       </c>
       <c r="Y13">
         <f t="shared" si="15"/>
-        <v>3.1418987260693275E-2</v>
+        <v>-1.4967429694119289E-2</v>
       </c>
       <c r="Z13">
         <v>7.8</v>
@@ -3090,18 +3091,18 @@
       </c>
       <c r="AZ13">
         <f t="shared" si="17"/>
-        <v>1.2578164356473151E-2</v>
+        <v>6.9399446375795256E-3</v>
       </c>
       <c r="BA13">
         <f t="shared" si="18"/>
-        <v>2.5087657132716622E-2</v>
+        <v>1.0333291205449697E-2</v>
       </c>
       <c r="BB13">
         <f t="shared" si="19"/>
-        <v>1.77517278022917E-2</v>
+        <v>-8.4565977771773968E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3113,27 +3114,27 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D14" s="5">
-        <f>D13+1/8</f>
-        <v>2</v>
+        <f>-1.9670135541</f>
+        <v>-1.9670135541</v>
       </c>
       <c r="E14" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+        <f>-0.189221009</f>
+        <v>-0.189221009</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>3.125E-2</v>
+        <v>-3.07345867828125E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-2.9565782656249999E-3</v>
       </c>
       <c r="H14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J14">
@@ -3141,23 +3142,23 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>2.3524139642716033</v>
+        <v>-1.3611248772746594</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.4971167550729527</v>
+        <v>1.2086394053363245</v>
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
-        <v>8.6466429051563126E-2</v>
+        <v>2.8947827055249321E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="8"/>
-        <v>3.5021227786252621E-2</v>
+        <v>2.2825143939558503E-2</v>
       </c>
       <c r="O14">
         <f t="shared" si="9"/>
-        <v>5.5028724387165683E-2</v>
+        <v>-2.5704830660276907E-2</v>
       </c>
       <c r="P14">
         <v>1130</v>
@@ -3172,31 +3173,31 @@
       </c>
       <c r="S14">
         <f t="shared" si="11"/>
-        <v>1.7656249999999998E-2</v>
+        <v>-1.7365041532289061E-2</v>
       </c>
       <c r="T14">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-1.6704667200781247E-3</v>
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
-        <v>1.8103740318621488</v>
+        <v>-1.2020723987216961</v>
       </c>
       <c r="V14">
         <f t="shared" si="4"/>
-        <v>1.1930972868157015</v>
+        <v>0.85369032273947099</v>
       </c>
       <c r="W14">
         <f t="shared" si="13"/>
-        <v>5.1210220863137701E-2</v>
+        <v>2.2577782058883319E-2</v>
       </c>
       <c r="X14">
         <f t="shared" si="14"/>
-        <v>2.2241892746984192E-2</v>
+        <v>1.1387299486547221E-2</v>
       </c>
       <c r="Y14">
         <f t="shared" si="15"/>
-        <v>3.3749255399005189E-2</v>
+        <v>-1.6034337094077106E-2</v>
       </c>
       <c r="Z14">
         <v>7.8</v>
@@ -3249,18 +3250,18 @@
       </c>
       <c r="AZ14">
         <f t="shared" si="17"/>
-        <v>1.2578164356473151E-2</v>
+        <v>6.4453191643262632E-3</v>
       </c>
       <c r="BA14">
         <f t="shared" si="18"/>
-        <v>2.8945269742099884E-2</v>
+        <v>1.2767941817696157E-2</v>
       </c>
       <c r="BB14">
         <f t="shared" si="19"/>
-        <v>1.906832930043793E-2</v>
+        <v>-9.0594004581535641E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3286,11 +3287,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J15">
@@ -3417,84 +3418,84 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(C2:C5,C11:C14)</f>
-        <v>0.78944022962906291</v>
+        <f>SUM(C2:C7,C11:C14)</f>
+        <v>0.82069022962906291</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(F2:F5,F11:F14)</f>
-        <v>-0.27820976087906291</v>
+        <f>SUM(F2:F7,F11:F14)</f>
+        <v>-0.49724691731343784</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16:J16" si="23">SUM(G2:G5,G11:G14)</f>
-        <v>-1.1325441805544929</v>
+        <f t="shared" ref="G16:J16" si="23">SUM(G2:G7,G11:G14)</f>
+        <v>-1.1472103844310551</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="23"/>
-        <v>0.29535259117806278</v>
+        <v>0.29539328128222941</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="23"/>
-        <v>0.30915862811858275</v>
+        <v>0.30919931822274938</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="23"/>
         <v>-7.5781976158911218E-2</v>
       </c>
       <c r="M16" s="2">
-        <f>SUM(M2:M5,M11:M14)</f>
-        <v>0.46066707548455499</v>
+        <f>SUM(M2:M7,M11:M14)</f>
+        <v>0.25258073519196572</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:O16" si="24">SUM(N2:N5,N11:N14)</f>
-        <v>0.90280621563083119</v>
+        <f t="shared" ref="N16:O16" si="24">SUM(N2:N7,N11:N14)</f>
+        <v>0.92513302557939214</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="24"/>
-        <v>0.1154388391412996</v>
+        <v>-0.17193331097307948</v>
       </c>
       <c r="R16" s="2">
-        <f>SUM(R2:R5,R11:R14)</f>
-        <v>0.11549737927770548</v>
+        <f>SUM(R2:R7,R11:R14)</f>
+        <v>0.13315362927770547</v>
       </c>
       <c r="S16" s="2">
-        <f>SUM(S2:S5,S11:S14)</f>
-        <v>2.1901302362919477E-2</v>
+        <f t="shared" ref="S16:T16" si="25">SUM(S2:S7,S11:S14)</f>
+        <v>-0.10185469102250237</v>
       </c>
       <c r="T16" s="2">
-        <f>SUM(T2:T5,T11:T14)</f>
-        <v>-0.13058102364569785</v>
+        <f t="shared" si="25"/>
+        <v>-0.13886742883595563</v>
       </c>
       <c r="W16" s="2">
-        <f>SUM(W2:W5,W11:W14)</f>
-        <v>0.69261036864767678</v>
+        <f>SUM(W2:W7,W11:W14)</f>
+        <v>0.27334230297354462</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" ref="X16:Y16" si="25">SUM(X2:X5,X11:X14)</f>
-        <v>0.97577246855892752</v>
+        <f t="shared" ref="X16:Y16" si="26">SUM(X2:X7,X11:X14)</f>
+        <v>1.0285308448312525</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="25"/>
-        <v>0.24553124089449943</v>
+        <f t="shared" si="26"/>
+        <v>-0.21826581395818648</v>
       </c>
       <c r="AZ16" s="2">
-        <f>SUM(AZ2:AZ5,AZ11:AZ14)</f>
-        <v>0.16988531357629777</v>
+        <f>SUM(AZ2:AZ7,AZ11:AZ14)</f>
+        <v>0.17339440321274485</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" ref="BA16:BB16" si="26">SUM(BA2:BA5,BA11:BA14)</f>
-        <v>0.19019288315108762</v>
+        <f t="shared" ref="BA16:BB16" si="27">SUM(BA2:BA7,BA11:BA14)</f>
+        <v>0.11371297013890538</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="26"/>
-        <v>8.0483383747886855E-2</v>
+        <f t="shared" si="27"/>
+        <v>-4.5652915977251941E-2</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="1"/>
       <c r="R21" s="4" t="s">
         <v>54</v>
@@ -3502,13 +3503,13 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q22" s="2"/>
       <c r="R22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3518,7 +3519,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3526,7 +3527,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>

--- a/src/Section Properties ITERATION005.xlsx
+++ b/src/Section Properties ITERATION005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193FF0F9-74E9-482B-ABD5-34D8601A47DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3B3D46-797A-4652-9BC4-CF879BBDA6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="2184" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1992" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="105">
   <si>
     <t>Name of element</t>
   </si>
@@ -289,6 +289,66 @@
   </si>
   <si>
     <t>Izzi*</t>
+  </si>
+  <si>
+    <t>Top Stringer6</t>
+  </si>
+  <si>
+    <t>Top Stringer7</t>
+  </si>
+  <si>
+    <t>Top Stringer8</t>
+  </si>
+  <si>
+    <t>Top Stringer9</t>
+  </si>
+  <si>
+    <t>Top Stringer10</t>
+  </si>
+  <si>
+    <t>Top Stringer11</t>
+  </si>
+  <si>
+    <t>Top Stringer12</t>
+  </si>
+  <si>
+    <t>Bottom Stringer6</t>
+  </si>
+  <si>
+    <t>Bottom Stringer7</t>
+  </si>
+  <si>
+    <t>Bottom Stringer8</t>
+  </si>
+  <si>
+    <t>Bottom Stringer9</t>
+  </si>
+  <si>
+    <t>Bottom Stringer10</t>
+  </si>
+  <si>
+    <t>Bottom Stringer11</t>
+  </si>
+  <si>
+    <t>Bottom Stringer12</t>
+  </si>
+  <si>
+    <t>Skin Thickness</t>
+  </si>
+  <si>
+    <t>Stringer Width</t>
+  </si>
+  <si>
+    <t>Spar Width</t>
+  </si>
+  <si>
+    <t>Top Skin Stringer Count</t>
+  </si>
+  <si>
+    <t>Bottom Skin Stringer Count</t>
+  </si>
+  <si>
+    <t>Not Required</t>
   </si>
 </sst>
 </file>
@@ -310,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -348,13 +414,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,13 +451,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>617695</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>23215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -444,13 +511,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>49385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -503,15 +570,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>457675</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>53695</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1120615</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>137515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -540,8 +607,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26883360" y="3086100"/>
-          <a:ext cx="5486875" cy="4099915"/>
+          <a:off x="27264360" y="5547360"/>
+          <a:ext cx="5479255" cy="4099915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB25"/>
+  <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +953,9 @@
     <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
@@ -1075,30 +1144,30 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.63713867682534053</v>
+        <f t="shared" ref="K2:K29" si="0">D2-$AH$3</f>
+        <v>0.67290710108414298</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.47713958566367554</v>
+        <f t="shared" ref="L2:L29" si="1">E2-$AI$3</f>
+        <v>-0.4950143342282729</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>9.5143521915643542E-2</v>
+        <v>0.10612592969284337</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>5.3358324423586866E-2</v>
+        <v>5.7431060412061002E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-7.1250957250955968E-2</v>
+        <v>-7.8069998587650985E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q15" si="2">P2/$AH$7</f>
+        <f t="shared" ref="Q2:Q29" si="2">P2/$AH$7</f>
         <v>0.1275</v>
       </c>
       <c r="R2">
@@ -1114,24 +1183,24 @@
         <v>-5.60302734375E-2</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.79619115537830387</v>
+        <f t="shared" ref="U2:U29" si="3">D2-$AH$5</f>
+        <v>0.85904499548853042</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.83208866826052907</v>
+        <f t="shared" ref="V2:V29" si="4">E2-$AI$5</f>
+        <v>-0.79491696180727578</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>0.14857508341468087</v>
+        <v>0.17295897756419279</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>0.16227458246427676</v>
+        <v>0.14809991628958827</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-0.15527382144364332</v>
+        <v>-0.16004752450066115</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1152,8 +1221,8 @@
         <f>C2*$AX$2</f>
         <v>10.78125</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>61</v>
+      <c r="AF2" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH2" t="s">
         <v>30</v>
@@ -1190,7 +1259,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.3978604143363245</v>
+        <v>1.3799856657717271</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1206,15 +1275,15 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>5.5708930162632786E-2</v>
+        <v>5.3901660225360006E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>1.8953050613399153E-2</v>
+        <v>2.2061997117461925E-2</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-1.9797412234064525E-2</v>
+        <v>-2.0406059373834298E-2</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.3">
@@ -1237,11 +1306,11 @@
         <v>-1.875</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="5">C3*D3</f>
+        <f t="shared" ref="F3:F29" si="5">C3*D3</f>
         <v>-0.24256522962906288</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="6">C3*E3</f>
+        <f t="shared" ref="G3:G29" si="6">C3*E3</f>
         <v>-0.45480980555449291</v>
       </c>
       <c r="H3">
@@ -1258,23 +1327,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.39411132317465947</v>
+        <v>-0.35834289891585702</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.47713958566367554</v>
+        <v>-0.4950143342282729</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>3.7676137460333881E-2</v>
+        <f t="shared" ref="M3:M29" si="7">C3*K3^2</f>
+        <v>3.1147712164571344E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>5.5222929990098701E-2</v>
+        <f t="shared" ref="N3:N29" si="8">C3*L3^2</f>
+        <v>5.9437987655219883E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>4.5613448688619815E-2</v>
+        <f t="shared" ref="O3:O29" si="9">C3*K3*L3</f>
+        <v>4.3027402095945015E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1284,36 +1353,36 @@
         <v>0.1275</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R15" si="10">Q3*C3</f>
+        <f t="shared" ref="R3:R29" si="10">Q3*C3</f>
         <v>3.0927066777705518E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S15" si="11">R3*D3</f>
+        <f t="shared" ref="S3:S29" si="11">R3*D3</f>
         <v>-3.0927066777705518E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T15" si="12">R3*E3</f>
+        <f t="shared" ref="T3:T29" si="12">R3*E3</f>
         <v>-5.7988250208197846E-2</v>
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.23505884462169613</v>
+        <v>-0.17220500451146958</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.83208866826052907</v>
+        <v>-0.79491696180727578</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>1.3402374266004926E-2</v>
+        <f t="shared" ref="W3:W29" si="13">C3*U3^2</f>
+        <v>7.1931660240401171E-3</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>0.16794526446253905</v>
+        <f t="shared" ref="X3:X29" si="14">C3*V3^2</f>
+        <v>0.1532752648654036</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>4.7443284988817176E-2</v>
+        <f t="shared" ref="Y3:Y29" si="15">C3*U3*V3</f>
+        <v>3.3204433853863118E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1331,35 +1400,35 @@
         <v>5.6</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" ref="AE3:AE15" si="16">C3*$AX$2</f>
+        <f t="shared" ref="AE3:AE29" si="16">C3*$AX$2</f>
         <v>11.158000562936893</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>61</v>
+      <c r="AF3" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH3">
-        <f>F16/C16</f>
-        <v>-0.60588867682534053</v>
+        <f>F30/C30</f>
+        <v>-0.64165710108414298</v>
       </c>
       <c r="AI3">
-        <f>G16/C16</f>
-        <v>-1.3978604143363245</v>
+        <f>G30/C30</f>
+        <v>-1.3799856657717271</v>
       </c>
       <c r="AJ3">
-        <f>H16+N16</f>
-        <v>1.2205263068616214</v>
+        <f>H30+N30</f>
+        <v>1.3703082019246129</v>
       </c>
       <c r="AK3">
-        <f>I16+M16</f>
-        <v>0.56178005341471504</v>
+        <f>I30+M30</f>
+        <v>0.62902727907305578</v>
       </c>
       <c r="AL3">
-        <f>J16+O16</f>
-        <v>-0.2477152871319907</v>
+        <f>J30+O30</f>
+        <v>-0.26562504015216781</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.62430447038390191</v>
+        <v>0.79140457779229001</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1378,7 +1447,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.47713958566367554</v>
+        <v>-0.4950143342282729</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1393,16 +1462,16 @@
         <v>80</v>
       </c>
       <c r="AZ3">
-        <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>2.3999675812926745E-2</v>
+        <f t="shared" ref="AZ3:AZ29" si="17">(Q3)*(H3+X3)</f>
+        <v>2.2129250864291978E-2</v>
       </c>
       <c r="BA3">
-        <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>3.7952127474445096E-2</v>
+        <f t="shared" ref="BA3:BA29" si="18">(Q3)*(I3+W3)</f>
+        <v>3.7160453423594586E-2</v>
       </c>
       <c r="BB3">
-        <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>-3.6131831241869904E-3</v>
+        <f t="shared" ref="BB3:BB29" si="19">(Q3)*(J3+Y3)</f>
+        <v>-5.4286366438936326E-3</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.3">
@@ -1445,23 +1514,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.14411132317465947</v>
+        <v>-0.10834289891585702</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.3353604143363245</v>
+        <v>1.3174856657717271</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>3.8940137750908392E-3</v>
+        <v>2.2009094522796773E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.33434764428309005</v>
+        <v>0.32545658990886955</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-3.6082604292200476E-2</v>
+        <v>-2.6763790558086902E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1484,23 +1553,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>1.4941155378303872E-2</v>
+        <v>7.7794995488530416E-2</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>0.98041133173947093</v>
+        <v>1.0175830381927242</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>4.1857148257241007E-5</v>
+        <v>1.1347614980738378E-3</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.18022619613809304</v>
+        <v>0.19415160742828785</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>2.7465896329067359E-3</v>
+        <v>1.4843037724764011E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1521,8 +1590,8 @@
         <f t="shared" si="16"/>
         <v>8.625</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>61</v>
+      <c r="AF4" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
         <v>44</v>
@@ -1575,15 +1644,15 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>1.3986451099139711E-2</v>
+        <v>1.5065670474129808E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>1.8196501789899363E-3</v>
+        <v>1.9043502661007224E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>2.1286069655027204E-4</v>
+        <v>1.1503354236692108E-3</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.3">
@@ -1626,23 +1695,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.35588867682534053</v>
+        <v>0.39165710108414298</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.2896395856636755</v>
+        <v>-2.3075143342282729</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>7.9160468932807301E-3</v>
+        <v>9.5872053018521627E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.32765308951488298</v>
+        <v>0.33278890016680934</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-5.0928550159297904E-2</v>
+        <v>-5.6484648428371975E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1665,23 +1734,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.51494115537830387</v>
+        <v>0.57779499548853042</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.6445886682605293</v>
+        <v>-2.6074169618072758</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>1.6572774593896406E-2</v>
+        <v>2.086544105072443E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.43711557651825</v>
+        <v>0.42491395079501781</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-8.5112971520902928E-2</v>
+        <v>-9.4159529480259532E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1702,32 +1771,32 @@
         <f t="shared" si="16"/>
         <v>2.875</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>61</v>
+      <c r="AF5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH5">
-        <f>S16/R16</f>
-        <v>-0.76494115537830387</v>
+        <f>S30/R30</f>
+        <v>-0.82779499548853042</v>
       </c>
       <c r="AI5">
-        <f>T16/R16</f>
-        <v>-1.0429113317394709</v>
+        <f>T30/R30</f>
+        <v>-1.0800830381927242</v>
       </c>
       <c r="AJ5">
-        <f>AZ16</f>
-        <v>0.17339440321274485</v>
+        <f>AZ30</f>
+        <v>0.25705569188162564</v>
       </c>
       <c r="AK5">
-        <f>BA16</f>
-        <v>0.11371297013890538</v>
+        <f>BA30</f>
+        <v>0.14699544328795824</v>
       </c>
       <c r="AL5">
-        <f>BB16</f>
-        <v>-4.5652915977251941E-2</v>
+        <f>BB30</f>
+        <v>-5.1111642795769338E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>1.7633003857558151E-2</v>
+        <v>3.5173615348550048E-2</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1758,15 +1827,15 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>3.388276414631021E-2</v>
+        <v>3.2937138152759712E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>1.3853014893603047E-3</v>
+        <v>1.7179831397644767E-3</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>-6.5962552928699771E-3</v>
+        <v>-7.297363534720114E-3</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.3">
@@ -1808,23 +1877,23 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.73088867682534053</v>
+        <v>0.76665710108414298</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.3353604143363245</v>
+        <v>1.3174856657717271</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>8.3468477798671423E-3</v>
+        <v>9.1837986037928403E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
-        <v>2.7862303690257502E-2</v>
+        <v>2.7121382492405796E-2</v>
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>1.5249996973737729E-2</v>
+        <v>1.5782183456882256E-2</v>
       </c>
       <c r="P6">
         <v>1130</v>
@@ -1847,23 +1916,23 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.88994115537830387</v>
+        <v>0.95279499548853042</v>
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>0.98041133173947093</v>
+        <v>1.0175830381927242</v>
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>1.2374925938063599E-2</v>
+        <v>1.4184660991062324E-2</v>
       </c>
       <c r="X6">
         <f t="shared" si="14"/>
-        <v>1.501884967817442E-2</v>
+        <v>1.6179300619023989E-2</v>
       </c>
       <c r="Y6">
         <f t="shared" si="15"/>
-        <v>1.3632943645534473E-2</v>
+        <v>1.5149187910688153E-2</v>
       </c>
       <c r="Z6">
         <v>7.8</v>
@@ -1884,8 +1953,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>61</v>
+      <c r="AF6" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH6" t="s">
         <v>39</v>
@@ -1919,15 +1988,15 @@
       </c>
       <c r="AZ6">
         <f t="shared" si="17"/>
-        <v>8.4971450225956296E-3</v>
+        <v>9.1527998041756355E-3</v>
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>7.0033281094330161E-3</v>
+        <v>8.0258284143772968E-3</v>
       </c>
       <c r="BB6">
         <f t="shared" si="19"/>
-        <v>7.7026131597269761E-3</v>
+        <v>8.559291169538805E-3</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.3">
@@ -1938,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="20">0.125*0.125</f>
+        <f t="shared" ref="C7:C29" si="20">0.125*0.125</f>
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
@@ -1957,7 +2026,7 @@
         <v>-9.765625E-4</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="21">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I29" si="21">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
@@ -1969,23 +2038,23 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.85588867682534053</v>
+        <v>0.89165710108414298</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.3353604143363245</v>
+        <v>1.3174856657717271</v>
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>1.1446022298716128E-2</v>
+        <v>1.2422693529902775E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="8"/>
-        <v>2.7862303690257502E-2</v>
+        <v>2.7121382492405796E-2</v>
       </c>
       <c r="O7">
         <f t="shared" si="9"/>
-        <v>1.7858122782988362E-2</v>
+        <v>1.835539764784266E-2</v>
       </c>
       <c r="P7">
         <v>1130</v>
@@ -2008,23 +2077,23 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>1.0149411553783039</v>
+        <v>1.0777949954885304</v>
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>0.98041133173947093</v>
+        <v>1.0175830381927242</v>
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>1.6095399201260099E-2</v>
+        <v>1.8150657067189397E-2</v>
       </c>
       <c r="X7">
         <f t="shared" si="14"/>
-        <v>1.501884967817442E-2</v>
+        <v>1.6179300619023989E-2</v>
       </c>
       <c r="Y7">
         <f t="shared" si="15"/>
-        <v>1.5547809527838128E-2</v>
+        <v>1.7136654782158318E-2</v>
       </c>
       <c r="Z7">
         <v>7.8</v>
@@ -2045,8 +2114,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>61</v>
+      <c r="AF7" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH7">
         <v>2000</v>
@@ -2080,15 +2149,15 @@
       </c>
       <c r="AZ7">
         <f t="shared" si="17"/>
-        <v>8.4971450225956296E-3</v>
+        <v>9.1527998041756355E-3</v>
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>9.1053955031390379E-3</v>
+        <v>1.026661619738909E-2</v>
       </c>
       <c r="BB7">
         <f t="shared" si="19"/>
-        <v>8.7845123832285422E-3</v>
+        <v>9.6822099519194484E-3</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.3">
@@ -2103,19 +2172,19 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D10" si="22">(1/16)+(1/8)/2</f>
-        <v>0.125</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
+        <f>D7+0.125</f>
+        <v>0.375</v>
+      </c>
+      <c r="E8">
+        <v>-6.25E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G8" t="e">
+        <v>5.859375E-3</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>-9.765625E-4</v>
       </c>
       <c r="H8">
         <f t="shared" si="21"/>
@@ -2130,23 +2199,23 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.73088867682534053</v>
-      </c>
-      <c r="L8" t="e">
+        <v>1.016657101084143</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.3174856657717271</v>
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>8.3468477798671423E-3</v>
-      </c>
-      <c r="N8" t="e">
+        <v>1.6149869706012707E-2</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O8" t="e">
+        <v>2.7121382492405796E-2</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>2.0928611838803065E-2</v>
       </c>
       <c r="P8">
         <v>1130</v>
@@ -2161,31 +2230,31 @@
       </c>
       <c r="S8">
         <f t="shared" si="11"/>
-        <v>1.1035156249999999E-3</v>
-      </c>
-      <c r="T8" t="e">
+        <v>3.3105468749999997E-3</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>-5.5175781249999995E-4</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.88994115537830387</v>
-      </c>
-      <c r="V8" t="e">
+        <v>1.2027949954885304</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1.0175830381927242</v>
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>1.2374925938063599E-2</v>
-      </c>
-      <c r="X8" t="e">
+        <v>2.2604934393316466E-2</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y8" t="e">
+        <v>1.6179300619023989E-2</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>1.9124121653628482E-2</v>
       </c>
       <c r="Z8">
         <v>7.8</v>
@@ -2206,17 +2275,17 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="7" t="s">
+      <c r="AF8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
       <c r="AO8" t="s">
         <v>62</v>
       </c>
@@ -2244,17 +2313,17 @@
       <c r="AW8" t="s">
         <v>62</v>
       </c>
-      <c r="AZ8" t="e">
+      <c r="AZ8">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>9.1527998041756355E-3</v>
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>7.0033281094330161E-3</v>
-      </c>
-      <c r="BB8" t="e">
+        <v>1.2783282886650885E-2</v>
+      </c>
+      <c r="BB8">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>1.0805128734300092E-2</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.3">
@@ -2269,7 +2338,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="D9:D17" si="22">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2296,7 +2365,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.73088867682534053</v>
+        <v>0.76665710108414298</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2304,7 +2373,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>8.3468477798671423E-3</v>
+        <v>9.1837986037928403E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2335,7 +2404,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.88994115537830387</v>
+        <v>0.95279499548853042</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2343,7 +2412,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>1.2374925938063599E-2</v>
+        <v>1.4184660991062324E-2</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2372,8 +2441,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>61</v>
+      <c r="AF9" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH9" t="s">
         <v>64</v>
@@ -2420,7 +2489,7 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>7.0033281094330161E-3</v>
+        <v>8.0258284143772968E-3</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
@@ -2466,7 +2535,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.73088867682534053</v>
+        <v>0.76665710108414298</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2474,7 +2543,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>8.3468477798671423E-3</v>
+        <v>9.1837986037928403E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2505,7 +2574,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.88994115537830387</v>
+        <v>0.95279499548853042</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2513,7 +2582,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>1.2374925938063599E-2</v>
+        <v>1.4184660991062324E-2</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2542,8 +2611,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>61</v>
+      <c r="AF10" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH10">
         <f>1/16</f>
@@ -2592,7 +2661,7 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>7.0033281094330161E-3</v>
+        <v>8.0258284143772968E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
@@ -2601,7 +2670,7 @@
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2611,20 +2680,19 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D11">
-        <f>-1.6046754518</f>
-        <v>-1.6046754517999999</v>
-      </c>
-      <c r="E11">
-        <f>-0.092597515</f>
-        <v>-9.2597515000000005E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>-2.5073053934374999E-2</v>
-      </c>
-      <c r="G11">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G11" t="e">
         <f t="shared" si="6"/>
-        <v>-1.4468361718750001E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H11">
         <f t="shared" si="21"/>
@@ -2639,23 +2707,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>-0.9987867749746594</v>
-      </c>
-      <c r="L11">
+        <v>0.76665710108414298</v>
+      </c>
+      <c r="L11" t="e">
         <f t="shared" si="1"/>
-        <v>1.3052628993363244</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11">
-        <f>C11*K11^2</f>
-        <v>1.558710971662939E-2</v>
-      </c>
-      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>9.1837986037928403E-3</v>
+      </c>
+      <c r="N11" t="e">
         <f t="shared" si="8"/>
-        <v>2.6620488068497934E-2</v>
-      </c>
-      <c r="O11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O11" t="e">
         <f t="shared" si="9"/>
-        <v>-2.0369989401909389E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2670,31 +2738,31 @@
       </c>
       <c r="S11">
         <f t="shared" si="11"/>
-        <v>-1.4166275472921873E-2</v>
-      </c>
-      <c r="T11">
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T11" t="e">
         <f t="shared" si="12"/>
-        <v>-8.1746243710937498E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>-0.83973429642169606</v>
-      </c>
-      <c r="V11">
+        <v>0.95279499548853042</v>
+      </c>
+      <c r="V11" t="e">
         <f t="shared" si="4"/>
-        <v>0.95031381673947091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>1.1018026384169389E-2</v>
-      </c>
-      <c r="X11">
+        <v>1.4184660991062324E-2</v>
+      </c>
+      <c r="X11" t="e">
         <f t="shared" si="14"/>
-        <v>1.4110880473217824E-2</v>
-      </c>
-      <c r="Y11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y11" t="e">
         <f t="shared" si="15"/>
-        <v>-1.2468923504367754E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2715,8 +2783,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>61</v>
+      <c r="AF11" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
         <v>65</v>
@@ -2757,22 +2825,22 @@
       <c r="AW11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="e">
         <f t="shared" si="17"/>
-        <v>7.984142421795154E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>6.2366798614827881E-3</v>
-      </c>
-      <c r="BB11">
+        <v>8.0258284143772968E-3</v>
+      </c>
+      <c r="BB11" t="e">
         <f t="shared" si="19"/>
-        <v>-7.0449417799677803E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2782,20 +2850,19 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D12">
-        <f>-1.7254548192</f>
-        <v>-1.7254548192000001</v>
-      </c>
-      <c r="E12">
-        <f>-0.1248053464</f>
-        <v>-0.1248053464</v>
+        <f t="shared" si="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>-2.6960231550000002E-2</v>
-      </c>
-      <c r="G12">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G12" t="e">
         <f t="shared" si="6"/>
-        <v>-1.9500835375E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H12">
         <f t="shared" si="21"/>
@@ -2810,23 +2877,23 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>-1.1195661423746595</v>
-      </c>
-      <c r="L12">
+        <v>0.76665710108414298</v>
+      </c>
+      <c r="L12" t="e">
         <f t="shared" si="1"/>
-        <v>1.2730550679363244</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>1.9584817924244942E-2</v>
-      </c>
-      <c r="N12">
+        <v>9.1837986037928403E-3</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="8"/>
-        <v>2.5322956343724369E-2</v>
-      </c>
-      <c r="O12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O12" t="e">
         <f t="shared" si="9"/>
-        <v>-2.22698336162497E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P12">
         <v>1130</v>
@@ -2841,31 +2908,31 @@
       </c>
       <c r="S12">
         <f t="shared" si="11"/>
-        <v>-1.5232530825749999E-2</v>
-      </c>
-      <c r="T12">
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T12" t="e">
         <f t="shared" si="12"/>
-        <v>-1.1017971986874999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
-        <v>-0.96051366382169623</v>
-      </c>
-      <c r="V12">
+        <v>0.95279499548853042</v>
+      </c>
+      <c r="V12" t="e">
         <f t="shared" si="4"/>
-        <v>0.91810598533947096</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W12">
         <f t="shared" si="13"/>
-        <v>1.4415414037315289E-2</v>
-      </c>
-      <c r="X12">
+        <v>1.4184660991062324E-2</v>
+      </c>
+      <c r="X12" t="e">
         <f t="shared" si="14"/>
-        <v>1.3170603129940013E-2</v>
-      </c>
-      <c r="Y12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y12" t="e">
         <f t="shared" si="15"/>
-        <v>-1.3778958496172559E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z12">
         <v>7.8</v>
@@ -2886,8 +2953,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF12" s="1" t="s">
-        <v>61</v>
+      <c r="AF12" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH12">
         <f>1/16</f>
@@ -2930,22 +2997,22 @@
       <c r="AW12" t="s">
         <v>62</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="e">
         <f t="shared" si="17"/>
-        <v>7.4528857228431901E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BA12">
         <f t="shared" si="18"/>
-        <v>8.1562038855102215E-3</v>
-      </c>
-      <c r="BB12">
+        <v>8.0258284143772968E-3</v>
+      </c>
+      <c r="BB12" t="e">
         <f t="shared" si="19"/>
-        <v>-7.7851115503374951E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2954,21 +3021,20 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D13" s="5">
-        <f>-1.8462341867</f>
-        <v>-1.8462341867000001</v>
-      </c>
-      <c r="E13" s="5">
-        <f>-0.1570131777</f>
-        <v>-0.15701317770000001</v>
+      <c r="D13">
+        <f t="shared" si="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>-2.8847409167187501E-2</v>
-      </c>
-      <c r="G13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G13" t="e">
         <f t="shared" si="6"/>
-        <v>-2.4533309015625001E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H13">
         <f t="shared" si="21"/>
@@ -2983,23 +3049,23 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>-1.2403455098746594</v>
-      </c>
-      <c r="L13">
+        <v>0.76665710108414298</v>
+      </c>
+      <c r="L13" t="e">
         <f t="shared" si="1"/>
-        <v>1.2408472366363243</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
-        <v>2.4038390372909824E-2</v>
-      </c>
-      <c r="N13">
+        <v>9.1837986037928403E-3</v>
+      </c>
+      <c r="N13" t="e">
         <f t="shared" si="8"/>
-        <v>2.4057841635437536E-2</v>
-      </c>
-      <c r="O13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O13" t="e">
         <f t="shared" si="9"/>
-        <v>-2.4048114037535061E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P13">
         <v>1130</v>
@@ -3014,31 +3080,31 @@
       </c>
       <c r="S13">
         <f t="shared" si="11"/>
-        <v>-1.6298786179460935E-2</v>
-      </c>
-      <c r="T13">
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T13" t="e">
         <f t="shared" si="12"/>
-        <v>-1.3861319593828124E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>-1.0812930313216962</v>
-      </c>
-      <c r="V13">
+        <v>0.95279499548853042</v>
+      </c>
+      <c r="V13" t="e">
         <f t="shared" si="4"/>
-        <v>0.88589815403947092</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W13">
         <f t="shared" si="13"/>
-        <v>1.8268665931013478E-2</v>
-      </c>
-      <c r="X13">
+        <v>1.4184660991062324E-2</v>
+      </c>
+      <c r="X13" t="e">
         <f t="shared" si="14"/>
-        <v>1.2262742802039721E-2</v>
-      </c>
-      <c r="Y13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y13" t="e">
         <f t="shared" si="15"/>
-        <v>-1.4967429694119289E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z13">
         <v>7.8</v>
@@ -3059,8 +3125,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>61</v>
+      <c r="AF13" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AO13" t="s">
         <v>62</v>
@@ -3089,22 +3155,22 @@
       <c r="AW13" t="s">
         <v>62</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="e">
         <f t="shared" si="17"/>
-        <v>6.9399446375795256E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BA13">
         <f t="shared" si="18"/>
-        <v>1.0333291205449697E-2</v>
-      </c>
-      <c r="BB13">
+        <v>8.0258284143772968E-3</v>
+      </c>
+      <c r="BB13" t="e">
         <f t="shared" si="19"/>
-        <v>-8.4565977771773968E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3113,21 +3179,20 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D14" s="5">
-        <f>-1.9670135541</f>
-        <v>-1.9670135541</v>
-      </c>
-      <c r="E14" s="5">
-        <f>-0.189221009</f>
-        <v>-0.189221009</v>
+      <c r="D14">
+        <f t="shared" si="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>-3.07345867828125E-2</v>
-      </c>
-      <c r="G14">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G14" t="e">
         <f t="shared" si="6"/>
-        <v>-2.9565782656249999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H14">
         <f t="shared" si="21"/>
@@ -3142,23 +3207,23 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>-1.3611248772746594</v>
-      </c>
-      <c r="L14">
+        <v>0.76665710108414298</v>
+      </c>
+      <c r="L14" t="e">
         <f t="shared" si="1"/>
-        <v>1.2086394053363245</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
-        <v>2.8947827055249321E-2</v>
-      </c>
-      <c r="N14">
+        <v>9.1837986037928403E-3</v>
+      </c>
+      <c r="N14" t="e">
         <f t="shared" si="8"/>
-        <v>2.2825143939558503E-2</v>
-      </c>
-      <c r="O14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O14" t="e">
         <f t="shared" si="9"/>
-        <v>-2.5704830660276907E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P14">
         <v>1130</v>
@@ -3173,31 +3238,31 @@
       </c>
       <c r="S14">
         <f t="shared" si="11"/>
-        <v>-1.7365041532289061E-2</v>
-      </c>
-      <c r="T14">
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T14" t="e">
         <f t="shared" si="12"/>
-        <v>-1.6704667200781247E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
-        <v>-1.2020723987216961</v>
-      </c>
-      <c r="V14">
+        <v>0.95279499548853042</v>
+      </c>
+      <c r="V14" t="e">
         <f t="shared" si="4"/>
-        <v>0.85369032273947099</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W14">
         <f t="shared" si="13"/>
-        <v>2.2577782058883319E-2</v>
-      </c>
-      <c r="X14">
+        <v>1.4184660991062324E-2</v>
+      </c>
+      <c r="X14" t="e">
         <f t="shared" si="14"/>
-        <v>1.1387299486547221E-2</v>
-      </c>
-      <c r="Y14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y14" t="e">
         <f t="shared" si="15"/>
-        <v>-1.6034337094077106E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z14">
         <v>7.8</v>
@@ -3218,8 +3283,23 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>61</v>
+      <c r="AF14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="AO14" t="s">
         <v>62</v>
@@ -3248,22 +3328,22 @@
       <c r="AW14" t="s">
         <v>62</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="e">
         <f t="shared" si="17"/>
-        <v>6.4453191643262632E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BA14">
         <f t="shared" si="18"/>
-        <v>1.2767941817696157E-2</v>
-      </c>
-      <c r="BB14">
+        <v>8.0258284143772968E-3</v>
+      </c>
+      <c r="BB14" t="e">
         <f t="shared" si="19"/>
-        <v>-9.0594004581535641E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3272,18 +3352,19 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
+      <c r="D15">
+        <f t="shared" si="22"/>
+        <v>0.125</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="e">
+      <c r="F15">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G15:G28" si="23">C15*E15</f>
         <v>#VALUE!</v>
       </c>
       <c r="H15">
@@ -3297,63 +3378,63 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="K15">
+        <f t="shared" ref="K15:K28" si="24">D15-$AH$3</f>
+        <v>0.76665710108414298</v>
       </c>
       <c r="L15" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ref="L15:L28" si="25">E15-$AI$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M28" si="26">C15*K15^2</f>
+        <v>9.1837986037928403E-3</v>
       </c>
       <c r="N15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N15:N28" si="27">C15*L15^2</f>
         <v>#VALUE!</v>
       </c>
       <c r="O15" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O15:O28" si="28">C15*K15*L15</f>
         <v>#VALUE!</v>
       </c>
       <c r="P15">
         <v>1130</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q15:Q28" si="29">P15/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R15">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="R15:R28" si="30">Q15*C15</f>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S15" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+      <c r="S15">
+        <f t="shared" ref="S15:S28" si="31">R15*D15</f>
+        <v>1.1035156249999999E-3</v>
       </c>
       <c r="T15" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <f t="shared" ref="T15:T28" si="32">R15*E15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15:U28" si="33">D15-$AH$5</f>
+        <v>0.95279499548853042</v>
       </c>
       <c r="V15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <f t="shared" ref="V15:V28" si="34">E15-$AI$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15:W28" si="35">C15*U15^2</f>
+        <v>1.4184660991062324E-2</v>
       </c>
       <c r="X15" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="X15:X28" si="36">C15*V15^2</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Y15:Y28" si="37">C15*U15*V15</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z15">
@@ -3372,11 +3453,30 @@
         <v>61</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AE15:AE28" si="38">C15*$AX$2</f>
         <v>0.71875</v>
       </c>
-      <c r="AF15" s="1" t="s">
-        <v>61</v>
+      <c r="AF15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH15">
+        <f>0.0625</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI15">
+        <f>0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ15">
+        <f>0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="AK15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>3</v>
       </c>
       <c r="AO15" t="s">
         <v>62</v>
@@ -3406,138 +3506,2354 @@
         <v>62</v>
       </c>
       <c r="AZ15" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA15" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <f t="shared" ref="AZ15:AZ28" si="39">(Q15)*(H15+X15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" ref="BA15:BA28" si="40">(Q15)*(I15+W15)</f>
+        <v>8.0258284143772968E-3</v>
       </c>
       <c r="BB15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="BB15:BB28" si="41">(Q15)*(J15+Y15)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="24"/>
+        <v>0.76665710108414298</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="26"/>
+        <v>9.1837986037928403E-3</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O16" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16">
+        <v>1130</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="31"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="33"/>
+        <v>0.95279499548853042</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="35"/>
+        <v>1.4184660991062324E-2</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y16" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16">
+        <v>7.8</v>
+      </c>
+      <c r="AA16">
+        <v>7.8</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ16" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="40"/>
+        <v>8.0258284143772968E-3</v>
+      </c>
+      <c r="BB16" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="22"/>
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="24"/>
+        <v>0.76665710108414298</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="26"/>
+        <v>9.1837986037928403E-3</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O17" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P17">
+        <v>1130</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="31"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="33"/>
+        <v>0.95279499548853042</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="35"/>
+        <v>1.4184660991062324E-2</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y17" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17">
+        <v>7.8</v>
+      </c>
+      <c r="AA17">
+        <v>7.8</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE17" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ17" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="40"/>
+        <v>8.0258284143772968E-3</v>
+      </c>
+      <c r="BB17" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D18">
+        <f>-1.6046754518</f>
+        <v>-1.6046754517999999</v>
+      </c>
+      <c r="E18">
+        <f>-0.092597515</f>
+        <v>-9.2597515000000005E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>-2.5073053934374999E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="23"/>
+        <v>-1.4468361718750001E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="24"/>
+        <v>-0.96301835071585695</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="25"/>
+        <v>1.2873881507717271</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="26"/>
+        <v>1.449069287211702E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="27"/>
+        <v>2.5896378917928863E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="28"/>
+        <v>-1.9371537713864462E-2</v>
+      </c>
+      <c r="P18">
+        <v>1130</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="31"/>
+        <v>-1.4166275472921873E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="32"/>
+        <v>-8.1746243710937498E-4</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="33"/>
+        <v>-0.77688045631146951</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="34"/>
+        <v>0.9874855231927242</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="35"/>
+        <v>9.430363178104955E-3</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="36"/>
+        <v>1.5236369664300128E-2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="37"/>
+        <v>-1.198684693529584E-2</v>
+      </c>
+      <c r="Z18">
+        <v>7.8</v>
+      </c>
+      <c r="AA18">
+        <v>7.8</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="39"/>
+        <v>8.6200438147566553E-3</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="40"/>
+        <v>5.3396501500563827E-3</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="41"/>
+        <v>-6.7725685184421491E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D19">
+        <f>-1.7254548192</f>
+        <v>-1.7254548192000001</v>
+      </c>
+      <c r="E19">
+        <f>-0.1248053464</f>
+        <v>-0.1248053464</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>-2.6960231550000002E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="23"/>
+        <v>-1.9500835375E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="24"/>
+        <v>-1.0837977181158571</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="25"/>
+        <v>1.255180319371727</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="26"/>
+        <v>1.8353398340517794E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="27"/>
+        <v>2.461683803340798E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="28"/>
+        <v>-2.1255649468109539E-2</v>
+      </c>
+      <c r="P19">
+        <v>1130</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="31"/>
+        <v>-1.5232530825749999E-2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="32"/>
+        <v>-1.1017971986874999E-3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="33"/>
+        <v>-0.89765982371146968</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="34"/>
+        <v>0.95527769179272426</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="35"/>
+        <v>1.2590518111026669E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="36"/>
+        <v>1.4258679194325549E-2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="37"/>
+        <v>-1.3398662568908697E-2</v>
+      </c>
+      <c r="Z19">
+        <v>7.8</v>
+      </c>
+      <c r="AA19">
+        <v>7.8</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="39"/>
+        <v>8.0676486992210181E-3</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="40"/>
+        <v>7.1251376871571508E-3</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="41"/>
+        <v>-7.570244351433413E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D20">
+        <f>-1.8462341867</f>
+        <v>-1.8462341867000001</v>
+      </c>
+      <c r="E20">
+        <f>-0.1570131777</f>
+        <v>-0.15701317770000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>-2.8847409167187501E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="23"/>
+        <v>-2.4533309015625001E-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="24"/>
+        <v>-1.2045770856158571</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="25"/>
+        <v>1.222972488071727</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="26"/>
+        <v>2.2671968049856123E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="27"/>
+        <v>2.3369714165317974E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="28"/>
+        <v>-2.3018197429215851E-2</v>
+      </c>
+      <c r="P20">
+        <v>1130</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="31"/>
+        <v>-1.6298786179460935E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="32"/>
+        <v>-1.3861319593828124E-3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="33"/>
+        <v>-1.0184391912114696</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="34"/>
+        <v>0.92306986049272421</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="35"/>
+        <v>1.6206537284304257E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="36"/>
+        <v>1.3313405739844646E-2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="37"/>
+        <v>-1.4688914408623346E-2</v>
+      </c>
+      <c r="Z20">
+        <v>7.8</v>
+      </c>
+      <c r="AA20">
+        <v>7.8</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE20" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="39"/>
+        <v>7.5335691974393083E-3</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="40"/>
+        <v>9.1681885200589879E-3</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" si="41"/>
+        <v>-8.2992366408721902E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D21">
+        <f>-1.9670135541</f>
+        <v>-1.9670135541</v>
+      </c>
+      <c r="E21">
+        <f>-0.189221009</f>
+        <v>-0.189221009</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>-3.07345867828125E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="23"/>
+        <v>-2.9565782656249999E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="24"/>
+        <v>-1.325356453015857</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="25"/>
+        <v>1.1907646567717272</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="26"/>
+        <v>2.7446401992980839E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="27"/>
+        <v>2.2155007309635769E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="28"/>
+        <v>-2.4659181591806575E-2</v>
+      </c>
+      <c r="P21">
+        <v>1130</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="31"/>
+        <v>-1.7365041532289061E-2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="32"/>
+        <v>-1.6704667200781247E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="33"/>
+        <v>-1.1392185586114696</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="34"/>
+        <v>0.89086202919272428</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="35"/>
+        <v>2.0278420691949912E-2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="36"/>
+        <v>1.2400549297771537E-2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="37"/>
+        <v>-1.5857602450291004E-2</v>
+      </c>
+      <c r="Z21">
+        <v>7.8</v>
+      </c>
+      <c r="AA21">
+        <v>7.8</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE21" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="39"/>
+        <v>7.0178053076680015E-3</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="40"/>
+        <v>1.1468802645378782E-2</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="41"/>
+        <v>-8.9595453844144163E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D22">
+        <f>-2.0877929216</f>
+        <v>-2.0877929216000002</v>
+      </c>
+      <c r="E22">
+        <f>-0.2214288403</f>
+        <v>-0.22142884030000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>-3.2621764400000003E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="23"/>
+        <v>-3.4598256296875002E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="24"/>
+        <v>-1.4461358205158572</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="25"/>
+        <v>1.1585568254717271</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="26"/>
+        <v>3.2676700177797995E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="27"/>
+        <v>2.0972717466361344E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="28"/>
+        <v>-2.6178601959653169E-2</v>
+      </c>
+      <c r="P22">
+        <v>1130</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="31"/>
+        <v>-1.8431296885999999E-2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="32"/>
+        <v>-1.9548014807734375E-3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="33"/>
+        <v>-1.2599979261114698</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="34"/>
+        <v>0.85865419789272424</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="35"/>
+        <v>2.4806168340706324E-2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="36"/>
+        <v>1.1520109868106213E-2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="37"/>
+        <v>-1.6904726696745941E-2</v>
+      </c>
+      <c r="Z22">
+        <v>7.8</v>
+      </c>
+      <c r="AA22">
+        <v>7.8</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE22" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="39"/>
+        <v>6.5203570299070934E-3</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="40"/>
+        <v>1.4026980066926155E-2</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="41"/>
+        <v>-9.5511705836614554E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <f>-1.1293681225</f>
+        <v>-1.1293681225000001</v>
+      </c>
+      <c r="E23" s="5">
+        <f>-1.875</f>
+        <v>-1.875</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>-1.7646376914062501E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="23"/>
+        <v>-2.9296875E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="24"/>
+        <v>-0.48771102141585709</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="25"/>
+        <v>-0.4950143342282729</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="26"/>
+        <v>3.7165943814140407E-3</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="27"/>
+        <v>3.8287373608040668E-3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="28"/>
+        <v>3.7722491650306477E-3</v>
+      </c>
+      <c r="P23">
+        <v>1130</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="31"/>
+        <v>-9.9702029564453128E-3</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="32"/>
+        <v>-1.6552734374999999E-2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="33"/>
+        <v>-0.30157312701146965</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="34"/>
+        <v>-0.79491696180727578</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="35"/>
+        <v>1.4210367333668127E-3</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="36"/>
+        <v>9.8733277526392178E-3</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="37"/>
+        <v>3.7457124044793307E-3</v>
+      </c>
+      <c r="Z23">
+        <v>7.8</v>
+      </c>
+      <c r="AA23">
+        <v>7.8</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE23" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="39"/>
+        <v>5.5899251346682409E-3</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="40"/>
+        <v>8.1438070877933239E-4</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" si="41"/>
+        <v>2.1163275085308215E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <f>-1.5724676205</f>
+        <v>-1.5724676205000001</v>
+      </c>
+      <c r="E24" s="5">
+        <f>-0.2133768825</f>
+        <v>-0.2133768825</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>-2.4569806570312502E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="23"/>
+        <v>-3.3340137890625001E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="24"/>
+        <v>-0.93081051941585713</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="25"/>
+        <v>1.1666087832717271</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="26"/>
+        <v>1.3537628485237777E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="27"/>
+        <v>2.1265250831355307E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="28"/>
+        <v>-1.6967058242379023E-2</v>
+      </c>
+      <c r="P24">
+        <v>1130</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="31"/>
+        <v>-1.3881940712226561E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="32"/>
+        <v>-1.8837177908203123E-3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="33"/>
+        <v>-0.74467262501146969</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="34"/>
+        <v>0.86670615569272424</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="35"/>
+        <v>8.6646456006480143E-3</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="36"/>
+        <v>1.17371806299322E-2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="37"/>
+        <v>-1.008456793864532E-2</v>
+      </c>
+      <c r="Z24">
+        <v>7.8</v>
+      </c>
+      <c r="AA24">
+        <v>7.8</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE24" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="39"/>
+        <v>6.6430020103387761E-3</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="40"/>
+        <v>4.907019718793211E-3</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" si="41"/>
+        <v>-5.6977808853346055E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <f>-0.6723638052</f>
+        <v>-0.67236380520000005</v>
+      </c>
+      <c r="E25" s="5">
+        <f>-3.5887661898</f>
+        <v>-3.5887661897999998</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>-1.0505684456250001E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="23"/>
+        <v>-5.6074471715624997E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="24"/>
+        <v>-3.0706704115857075E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="25"/>
+        <v>-2.2087805240282727</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="26"/>
+        <v>1.4732838713418654E-5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="27"/>
+        <v>7.6229865676978301E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="28"/>
+        <v>1.059755781378186E-3</v>
+      </c>
+      <c r="P25">
+        <v>1130</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="31"/>
+        <v>-5.93571171778125E-3</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="32"/>
+        <v>-3.1682076519328119E-2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="33"/>
+        <v>0.15543119028853036</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="34"/>
+        <v>-2.5086831516072756</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="35"/>
+        <v>3.7748210803920839E-4</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="36"/>
+        <v>9.8335799299347076E-2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="37"/>
+        <v>-6.0926188798609456E-3</v>
+      </c>
+      <c r="Z25">
+        <v>7.8</v>
+      </c>
+      <c r="AA25">
+        <v>7.8</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE25" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="39"/>
+        <v>5.5571221558558176E-2</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="40"/>
+        <v>2.2477234546923605E-4</v>
+      </c>
+      <c r="BB25">
+        <f t="shared" si="41"/>
+        <v>-3.4423296671214341E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O26" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P26">
+        <v>1130</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S26" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W26" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X26" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y26" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26">
+        <v>7.8</v>
+      </c>
+      <c r="AA26">
+        <v>7.8</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE26" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ26" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA26" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB26" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O27" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27">
+        <v>1130</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S27" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X27" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27">
+        <v>7.8</v>
+      </c>
+      <c r="AA27">
+        <v>7.8</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE27" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ27" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA27" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB27" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O28" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P28">
+        <v>1130</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S28" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W28" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X28" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28">
+        <v>7.8</v>
+      </c>
+      <c r="AA28">
+        <v>7.8</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE28" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ28" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA28" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB28" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="21"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O29" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29">
+        <v>1130</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S29" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U29" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X29" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y29" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z29">
+        <v>7.8</v>
+      </c>
+      <c r="AA29">
+        <v>7.8</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE29" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ29" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA29" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB29" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2">
-        <f>SUM(C2:C7,C11:C14)</f>
-        <v>0.82069022962906291</v>
-      </c>
-      <c r="F16" s="2">
-        <f>SUM(F2:F7,F11:F14)</f>
-        <v>-0.49724691731343784</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" ref="G16:J16" si="23">SUM(G2:G7,G11:G14)</f>
-        <v>-1.1472103844310551</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="23"/>
-        <v>0.29539328128222941</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="23"/>
-        <v>0.30919931822274938</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="23"/>
+      <c r="C30" s="2">
+        <f>SUM(C2:C8,C18:C25)</f>
+        <v>0.89881522962906291</v>
+      </c>
+      <c r="F30" s="2">
+        <f>SUM(F2:F8,F18:F25)</f>
+        <v>-0.57673117465406276</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="G30:J30" si="42">SUM(G2:G8,G18:G25)</f>
+        <v>-1.2403521330654301</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="42"/>
+        <v>0.29549500654264599</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="42"/>
+        <v>0.30930104348316595</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="42"/>
         <v>-7.5781976158911218E-2</v>
       </c>
-      <c r="M16" s="2">
-        <f>SUM(M2:M7,M11:M14)</f>
-        <v>0.25258073519196572</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" ref="N16:O16" si="24">SUM(N2:N7,N11:N14)</f>
-        <v>0.92513302557939214</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="24"/>
-        <v>-0.17193331097307948</v>
-      </c>
-      <c r="R16" s="2">
-        <f>SUM(R2:R7,R11:R14)</f>
-        <v>0.13315362927770547</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" ref="S16:T16" si="25">SUM(S2:S7,S11:S14)</f>
-        <v>-0.10185469102250237</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="25"/>
-        <v>-0.13886742883595563</v>
-      </c>
-      <c r="W16" s="2">
-        <f>SUM(W2:W7,W11:W14)</f>
-        <v>0.27334230297354462</v>
-      </c>
-      <c r="X16" s="2">
-        <f t="shared" ref="X16:Y16" si="26">SUM(X2:X7,X11:X14)</f>
-        <v>1.0285308448312525</v>
-      </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="26"/>
-        <v>-0.21826581395818648</v>
-      </c>
-      <c r="AZ16" s="2">
-        <f>SUM(AZ2:AZ7,AZ11:AZ14)</f>
-        <v>0.17339440321274485</v>
-      </c>
-      <c r="BA16" s="2">
-        <f t="shared" ref="BA16:BB16" si="27">SUM(BA2:BA7,BA11:BA14)</f>
-        <v>0.11371297013890538</v>
-      </c>
-      <c r="BB16" s="2">
-        <f t="shared" si="27"/>
-        <v>-4.5652915977251941E-2</v>
+      <c r="M30" s="2">
+        <f>SUM(M2:M8,M18:M25)</f>
+        <v>0.31972623558988988</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" ref="N30:O30" si="43">SUM(N2:N8,N18:N25)</f>
+        <v>1.0748131953819668</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="43"/>
+        <v>-0.18984306399325662</v>
+      </c>
+      <c r="R30" s="2">
+        <f>SUM(R2:R8,R18:R25)</f>
+        <v>0.17729425427770543</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" ref="S30:T30" si="44">SUM(S2:S8,S18:S25)</f>
+        <v>-0.14676329641995553</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="44"/>
+        <v>-0.19149251681437746</v>
+      </c>
+      <c r="W30" s="2">
+        <f>SUM(W2:W8,W18:W25)</f>
+        <v>0.35086777063674557</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" ref="X30:Y30" si="45">SUM(X2:X8,X18:X25)</f>
+        <v>1.1556540626816358</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="45"/>
+        <v>-0.24001784552971039</v>
+      </c>
+      <c r="AZ30" s="2">
+        <f>SUM(AZ2:AZ8,AZ18:AZ25)</f>
+        <v>0.25705569188162564</v>
+      </c>
+      <c r="BA30" s="2">
+        <f t="shared" ref="BA30:BB30" si="46">SUM(BA2:BA8,BA18:BA25)</f>
+        <v>0.14699544328795824</v>
+      </c>
+      <c r="BB30" s="2">
+        <f t="shared" si="46"/>
+        <v>-5.1111642795769338E-2</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q21" s="1"/>
-      <c r="R21" s="4" t="s">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q22" s="2"/>
-      <c r="R22" s="3" t="s">
+    <row r="36" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q23" s="6" t="s">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q23:V25"/>
+    <mergeCell ref="Q37:V39"/>
     <mergeCell ref="AG8:AL8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/Section Properties ITERATION005.xlsx
+++ b/src/Section Properties ITERATION005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3B3D46-797A-4652-9BC4-CF879BBDA6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F470F4-0751-410E-BD96-CFDB31109006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1992" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="4008" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
